--- a/va_facility_data_2025-02-20/Decorah VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Decorah%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Decorah VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Decorah%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5dc4d403058c4d9fbd56b401952c384b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5a68f88661214ef38654abd7245d0a8c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R029395569e054656990a0817fd729633"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rdcd24318fbae406db09834cadd2e2f1c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R106d8e4f3cb840aca61f80dbc17dfeed"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6442bd9c456d44f1a0a7e4100ede9b80"/>
   </x:sheets>
 </x:workbook>
 </file>
